--- a/data/datawrapper_read/summary_20240707_112742.xlsx
+++ b/data/datawrapper_read/summary_20240707_112742.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamakick/myprojects/project1_wheelchair/data/datawrapper_read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4FC7A4-8556-0A4E-805E-AFF25F314407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD0E1FC7-E8C4-D84F-96CA-F84850A40CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{A437884F-11CB-B141-9565-9FEF6B9AFFDA}"/>
   </bookViews>
@@ -908,7 +908,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
